--- a/biology/Botanique/Forêt_de_Rennes/Forêt_de_Rennes.xlsx
+++ b/biology/Botanique/Forêt_de_Rennes/Forêt_de_Rennes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Rennes</t>
+          <t>Forêt_de_Rennes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt domaniale de Rennes, ou simplement forêt de Rennes, est une forêt française située principalement sur la commune de Liffré à 15 km au nord-est de Rennes dans le département d'Ille-et-Vilaine en Bretagne. Avec environ 2 915 ha, la forêt de Rennes est la plus grande forêt domaniale de Bretagne.
-Elle est gérée par l'Office national des forêts (ONF)[2].
+Elle est gérée par l'Office national des forêts (ONF).
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Rennes</t>
+          <t>Forêt_de_Rennes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,13 +527,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Localisation
-La forêt domaniale de Rennes occupe une surface de 2 915 ha et 23 a. Elle se trouve sur la commune de Liffré en grande majorité et sur les communes de Betton, Saint-Sulpice-la-Forêt, Thorigné-Fouillard et Chasné-sur-Illet.
+          <t>Localisation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt domaniale de Rennes occupe une surface de 2 915 ha et 23 a. Elle se trouve sur la commune de Liffré en grande majorité et sur les communes de Betton, Saint-Sulpice-la-Forêt, Thorigné-Fouillard et Chasné-sur-Illet.
 La forêt se situe à 15 km au Nord-Est de Rennes, à l'Ouest de la forêt de Chevré, au Sud-Ouest de celle de Liffré et au sud de celle de Saint-Aubin-du-Cormier. Elle est traversée par l'autoroute A84 (Rennes-Caen, route nationale 12), plusieurs routes départementales (du nord au sud : D 106, D 528, D 227 / D 27, ) ainsi que le sentier GR 39 (Guérande − Mont Saint-Michel).
 Elle est divisée en 202 parcelles d’environ 14 ha chacune.
-Répartition géographique
-Hydrologie
-La forêt de Rennes comporte trois principaux ruisseaux à faibles débits : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Forêt_de_Rennes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Rennes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hydrologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de Rennes comporte trois principaux ruisseaux à faibles débits : 
 le ruisseau de Caleuvre et celui du Grand Bat à l’Ouest, ces deux ruisseaux affluents de l’Illet qui s’écoule vers l’Ille.
 le ruisseau du Gué Renaie au Sud-Est, affluent de la Chevré qui rejoint la Vilaine.
 Elle comporte aussi des étangs et des mares, aménagés pour différentes raisons : 
@@ -529,49 +580,6 @@
 l’étang de Saint Roux, situé sur le ruisseau de Fresnay et le trou parcelle 188 pour des raisons cynégétiques et de biodiversité.
 les étangs parcelles : 6, 67, 105, 181 pour lutter contre les incendies forestiers.
 Enfin, l’adduction d’eau de la ville de Rennes traverse la forêt du nord au sud.
-Topographie
-La topographie de la Forêt de Rennes est classique à celle du Bassin Rennais et du massif armoricain : on retrouve des dômes, et des plateaux séparés par des vallées largement évasées.
-Le relief se compose de schistes rouges briovériens, qui créent une surface relativement plate, comprise entre 100 et 40 m d'altitude avec des pentes relativement faibles qui varient entre 1,5 % et 3 %.
-Climat
-La station météorologique de la forêt domaniale de Rennes a été mise en service le 6 décembre 1994 et a cessé son activité le 15 novembre 2008[4].
-Le tableau ci-dessous indique les températures et les précipitations de Rennes (à 15 km au Sud-Ouest) pour l'année 2007 :
-La forêt de Rennes est sous un climat océanique caractérisé par un temps doux et humide.
-Les précipitations annuelles sont environ de 632 mm pour 170 jours de pluies par an[6].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_de_Rennes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Rennes</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Histoire</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous l'Empire romain, la forêt s'étendait jusqu'à la ville de Condate (nom de Rennes à l’époque). Mais elle a été en partie défrichée pendant cette période et au Moyen Âge.
-Au carrefour de Verrières, au nord de la forêt, se trouve un enclos d'environ 3 ha datant de l’âge du fer et qui a été réemployé au Moyen Âge. Son centre comporte des fondations d’un manoir. Il s'agit d’une ancienne résidence de chasse des Ducs de Bretagne[7],[8].
-Au XIIe siècle, la forêt appartient au Duché de Bretagne, et devient forêt royale en raison du mariage le 6 décembre 1491 d’Anne de Bretagne avec Charles VIII, roi de France.
-Au XIIIe siècle, la forêt occupait une surface comparable à celle d'aujourd'hui. Elle a été habitée et exploitée par un certain nombre d’artisans comme des sabotiers, des boisseliers, des charpentiers, ou encore des tonneliers, jusqu'en 1726 où le roi Louis XV est contraint d'autoriser des coupes dans la forêt pour pouvoir reconstruire le centre-ville de Rennes après le Grand Incendie de 1720[9]. En 1756 un autre grand incendie forestier va ravager 300 ha.
-Le XIXe siècle est marqué par la présence de Napoléon III au pouvoir. Pendant cette période, un grand nombre de forêts de France seront reboisées (dont celle de Rennes). Les artisans eux, vont disparaître peu à peu.
 </t>
         </is>
       </c>
@@ -582,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Rennes</t>
+          <t>Forêt_de_Rennes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,15 +605,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Protections</t>
+          <t>Géographie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>La forêt est protégée à plusieurs titres :
-l’ensemble natura 2000 « complexe forestier Rennes-Liffré-Chevré, étang et lande d’Ouée, forêt de Haute-Sève », de 1 730 ha[3].
-plusieurs ZNIEFFs se trouvent en bordure de la forêt de Rennes :
-le site « Forêt de Rennes » de 3 075 ha[10]</t>
+          <t>Topographie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La topographie de la Forêt de Rennes est classique à celle du Bassin Rennais et du massif armoricain : on retrouve des dômes, et des plateaux séparés par des vallées largement évasées.
+Le relief se compose de schistes rouges briovériens, qui créent une surface relativement plate, comprise entre 100 et 40 m d'altitude avec des pentes relativement faibles qui varient entre 1,5 % et 3 %.
+</t>
         </is>
       </c>
     </row>
@@ -615,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Rennes</t>
+          <t>Forêt_de_Rennes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -630,75 +643,365 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La station météorologique de la forêt domaniale de Rennes a été mise en service le 6 décembre 1994 et a cessé son activité le 15 novembre 2008.
+Le tableau ci-dessous indique les températures et les précipitations de Rennes (à 15 km au Sud-Ouest) pour l'année 2007 :
+La forêt de Rennes est sous un climat océanique caractérisé par un temps doux et humide.
+Les précipitations annuelles sont environ de 632 mm pour 170 jours de pluies par an.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forêt_de_Rennes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Rennes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous l'Empire romain, la forêt s'étendait jusqu'à la ville de Condate (nom de Rennes à l’époque). Mais elle a été en partie défrichée pendant cette période et au Moyen Âge.
+Au carrefour de Verrières, au nord de la forêt, se trouve un enclos d'environ 3 ha datant de l’âge du fer et qui a été réemployé au Moyen Âge. Son centre comporte des fondations d’un manoir. Il s'agit d’une ancienne résidence de chasse des Ducs de Bretagne,.
+Au XIIe siècle, la forêt appartient au Duché de Bretagne, et devient forêt royale en raison du mariage le 6 décembre 1491 d’Anne de Bretagne avec Charles VIII, roi de France.
+Au XIIIe siècle, la forêt occupait une surface comparable à celle d'aujourd'hui. Elle a été habitée et exploitée par un certain nombre d’artisans comme des sabotiers, des boisseliers, des charpentiers, ou encore des tonneliers, jusqu'en 1726 où le roi Louis XV est contraint d'autoriser des coupes dans la forêt pour pouvoir reconstruire le centre-ville de Rennes après le Grand Incendie de 1720. En 1756 un autre grand incendie forestier va ravager 300 ha.
+Le XIXe siècle est marqué par la présence de Napoléon III au pouvoir. Pendant cette période, un grand nombre de forêts de France seront reboisées (dont celle de Rennes). Les artisans eux, vont disparaître peu à peu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forêt_de_Rennes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Rennes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Protections</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La forêt est protégée à plusieurs titres :
+l’ensemble natura 2000 « complexe forestier Rennes-Liffré-Chevré, étang et lande d’Ouée, forêt de Haute-Sève », de 1 730 ha.
+plusieurs ZNIEFFs se trouvent en bordure de la forêt de Rennes :
+le site « Forêt de Rennes » de 3 075 ha</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Forêt_de_Rennes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Rennes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Flore</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Habitats
-La forêt de Rennes est partiellement composée de différents habitats :
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Habitats</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La forêt de Rennes est partiellement composée de différents habitats :
 La hêtraie-chênaie acidophile atlantique (mélange de hêtres et de chênes sessiles)
 La Hêtraie de l’Asperulo-Fagetum (hêtres et Chênes sessiles)
 La chênaie pédonculée acidiphile (chênes pédonculés et frêne)
-Des pineraies humides (pins sylvestres)
-Végétation (non exhaustif)
-Digitalis purpurea  (Digitale)
+Des pineraies humides (pins sylvestres)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Forêt_de_Rennes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Rennes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Végétation (non exhaustif)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Digitalis purpurea  (Digitale)
 Hedera helix (Lierre)
 Quercus sp.
 Ilex aquifolium (Houx)</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_de_Rennes</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Rennes</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Forêt_de_Rennes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Rennes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Faune</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Liste non exhaustive :
-Les Chiroptères
-Le Grand murin[3]
-Le Murin de Bechstein[3]
-La Barbastelle[3]
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste non exhaustive :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Forêt_de_Rennes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Rennes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Les Chiroptères</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le Grand murin
+Le Murin de Bechstein
+La Barbastelle
 La Noctule de Leisler
-La Pipistrelle de Kuhl
-Les Amphibiens
-Le Triton crêté[3]
+La Pipistrelle de Kuhl</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Forêt_de_Rennes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Rennes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Les Amphibiens</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le Triton crêté
 Le Triton marbré
 Le Triton Palmé
 Le Triton Alpestre
 La grenouille agile
 Le crapaud calamite
-La Rainette verte
-Les insectes
-Le Lucane cerf-volant[3]
-L’Écaille chinée[3]
+La Rainette verte</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Forêt_de_Rennes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Rennes</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Les insectes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Le Lucane cerf-volant
+L’Écaille chinée
 Le Capricorne du chêne
 Le Pique-prune
 Le Grand mars changeant
-Le Damier de la succise
-Les oiseaux
-Le Grand Cormoran
+Le Damier de la succise</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Forêt_de_Rennes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Rennes</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Les oiseaux</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Le Grand Cormoran
 La Bondrée apivore
 Le Busard Saint-Martin
 Le Martin-pêcheur
@@ -706,10 +1009,44 @@
 La Fauvette pitchou
 Le Pic mar
 Le Pic épeiche
-Le Merle noir
-Les poissons
-la Lamproie de Planer[3]
-le Chabot[3]</t>
+Le Merle noir</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Forêt_de_Rennes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Rennes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Les poissons</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>la Lamproie de Planer
+le Chabot</t>
         </is>
       </c>
     </row>
